--- a/Loading/PurchaseOrders/CurrentCycle/Data/Purchase Orders - Template.xlsx
+++ b/Loading/PurchaseOrders/CurrentCycle/Data/Purchase Orders - Template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarathonConsultant\Documents\GitHub\AssetWorksConversion\Loading\PurchaseOrders\CurrentCycle\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PURCHASE ORDERS" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Account ID</t>
   </si>
@@ -27,9 +32,6 @@
     <t>SCREEN</t>
   </si>
   <si>
-    <t>[KEY]</t>
-  </si>
-  <si>
     <t>Task ID</t>
   </si>
   <si>
@@ -39,9 +41,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>2325</t>
-  </si>
-  <si>
     <t>Purchase Order Id</t>
   </si>
   <si>
@@ -99,31 +98,13 @@
     <t>Purchase Order Number</t>
   </si>
   <si>
-    <t>8904:3</t>
-  </si>
-  <si>
     <t>Work Order Location ID</t>
   </si>
   <si>
-    <t>8904:4</t>
-  </si>
-  <si>
     <t>Work Order Year</t>
   </si>
   <si>
     <t>Work Order Number</t>
-  </si>
-  <si>
-    <t>8904:5</t>
-  </si>
-  <si>
-    <t>8904:6</t>
-  </si>
-  <si>
-    <t>8904:7</t>
-  </si>
-  <si>
-    <t>8904:8</t>
   </si>
   <si>
     <t>Comments</t>
@@ -966,7 +947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -976,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1014,49 +995,49 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1100,52 +1081,52 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>0</v>
@@ -1158,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1182,51 +1163,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
